--- a/VoltageAndAHCalculations2.xlsx
+++ b/VoltageAndAHCalculations2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauriciob\source\repos\FLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A40CD9-0F28-4BB3-BE5C-A686685FC45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C5A376-80F7-4F91-A5B6-737854DDFE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D1901D66-8725-4A32-A29E-E603FAF9A866}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Vread</t>
   </si>
@@ -75,7 +75,36 @@
     <t>Recalculate I</t>
   </si>
   <si>
-    <t>Read V</t>
+    <t>V DI In
+Meassured</t>
+  </si>
+  <si>
+    <t>R1 &amp; R2 Meassured</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>R1 &amp; R2 Nominal</t>
+  </si>
+  <si>
+    <t>2.80-2.85</t>
+  </si>
+  <si>
+    <t>12.06-12.35</t>
+  </si>
+  <si>
+    <t>V DI In
+(Program Read)</t>
+  </si>
+  <si>
+    <t>11.99-12.20</t>
+  </si>
+  <si>
+    <t>2.78-2.83</t>
+  </si>
+  <si>
+    <t>Volts Calculated (Program)</t>
   </si>
 </sst>
 </file>
@@ -84,8 +113,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -109,7 +138,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,17 +206,36 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -509,12 +563,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
@@ -777,203 +831,374 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C673DCD-2571-490F-A24A-CFC749ABF86C}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16">
         <v>320</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="7">
+      <c r="E2" s="3"/>
+      <c r="F2" s="11">
         <f>G2/C2*1000000</f>
         <v>10312.499999999998</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="12">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10">
+      <c r="B3" s="15"/>
+      <c r="C3" s="17">
         <f>G3/F3*1000000</f>
         <v>330</v>
       </c>
-      <c r="F3" s="8">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="13">
         <v>10000</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="16">
         <v>330</v>
       </c>
-      <c r="E4" s="7">
+      <c r="D4" s="3"/>
+      <c r="E4" s="11">
         <f>B4/(C4/1000000)-F4</f>
         <v>32424.242424242424</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="13">
         <v>10000</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
+      <c r="G4" s="12"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15">
+        <v>12.02</v>
+      </c>
+      <c r="C6" s="17">
+        <f>B6/(E6+F6)*1000000</f>
+        <v>282.02721726888785</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="13">
+        <v>32720</v>
+      </c>
+      <c r="F6" s="13">
+        <v>9900</v>
+      </c>
+      <c r="G6" s="12">
+        <f>F6*C6/1000000</f>
+        <v>2.7920694509619897</v>
+      </c>
+      <c r="H6" s="14">
+        <v>2.79</v>
+      </c>
+      <c r="I6" s="14">
+        <f>G6-H6</f>
+        <v>2.0694509619896273E-3</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15">
+        <v>12.01</v>
+      </c>
+      <c r="C7" s="17">
+        <f>B7/(E7+F7)*1000000</f>
+        <v>281.79258564054436</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="13">
+        <v>32720</v>
+      </c>
+      <c r="F7" s="13">
+        <v>9900</v>
+      </c>
+      <c r="G7" s="12">
+        <f>F7*C7/1000000</f>
+        <v>2.7897465978413889</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="I7" s="14">
+        <f>G7-H7</f>
+        <v>8.7465978413887591E-3</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="18">
         <v>12</v>
       </c>
-      <c r="C5" s="10">
-        <f>B5/(E5+F5)*1000000</f>
-        <v>279.06976744186045</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C8" s="17">
+        <f>B8/(E8+F8)*1000000</f>
+        <v>281.55795401220081</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="13">
+        <v>32720</v>
+      </c>
+      <c r="F8" s="13">
+        <v>9900</v>
+      </c>
+      <c r="G8" s="12">
+        <f>F8*C8/1000000</f>
+        <v>2.7874237447207881</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" ref="C10:C13" si="0">B10/(E10+F10)*1000000</f>
+        <v>279.53488372093022</v>
+      </c>
+      <c r="E10" s="5">
         <v>33000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F10" s="5">
         <v>10000</v>
       </c>
-      <c r="G5" s="11">
-        <f>F5*C5/1000000</f>
-        <v>2.7906976744186043</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="G10" s="7">
+        <f>F10*C10/1000000</f>
+        <v>2.7953488372093025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>279.30232558139534</v>
+      </c>
+      <c r="E11" s="5">
+        <v>33000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" ref="G11:G13" si="1">F11*C11/1000000</f>
+        <v>2.7930232558139534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C6" s="10">
-        <f t="shared" ref="C6:C9" si="0">B6/(E6+F6)*1000000</f>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
         <v>255.81395348837211</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E12" s="5">
         <v>33000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F12" s="5">
         <v>10000</v>
       </c>
-      <c r="G6" s="11">
-        <f t="shared" ref="G6:G9" si="1">F6*C6/1000000</f>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
         <v>2.5581395348837215</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
-        <v>209.30232558139534</v>
-      </c>
-      <c r="E7" s="8">
+        <v>186.04651162790697</v>
+      </c>
+      <c r="E13" s="5">
         <v>33000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F13" s="5">
         <v>10000</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>2.0930232558139537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
+        <v>1.8604651162790695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:C15" si="2">B14/(E14+F14)*1000000</f>
+        <v>162.7906976744186</v>
+      </c>
+      <c r="E14" s="5">
+        <v>33000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" ref="G14:G15" si="3">F14*C14/1000000</f>
+        <v>1.6279069767441858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
-        <f t="shared" si="0"/>
+      <c r="C15" s="6">
+        <f t="shared" si="2"/>
         <v>139.53488372093022</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E15" s="5">
         <v>33000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F15" s="5">
         <v>10000</v>
       </c>
-      <c r="G8" s="11">
-        <f t="shared" si="1"/>
+      <c r="G15" s="7">
+        <f t="shared" si="3"/>
         <v>1.3953488372093021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10">
-        <f t="shared" si="0"/>
-        <v>116.27906976744187</v>
-      </c>
-      <c r="E9" s="8">
-        <v>33000</v>
-      </c>
-      <c r="F9" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="1"/>
-        <v>1.1627906976744187</v>
       </c>
     </row>
   </sheetData>
